--- a/documentation/Nick Watts - Product Backlog - COMP4420.xlsx
+++ b/documentation/Nick Watts - Product Backlog - COMP4420.xlsx
@@ -28,28 +28,31 @@
     <t>User</t>
   </si>
   <si>
+    <t>as a user, I want a GUI to interact with the software</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I dont have to use a CLI </t>
+  </si>
+  <si>
     <t>enter my monthly income</t>
   </si>
   <si>
-    <t>I can start breaking down my budget</t>
-  </si>
-  <si>
-    <t>enter monthly recurring payments / subscriptions</t>
-  </si>
-  <si>
-    <t>I can account for monthly payments / subscriptions</t>
-  </si>
-  <si>
-    <t>enter the amount of money spent monthly on groceries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I can account for monthly grocery expenses </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter custom fields for monthly expenses </t>
-  </si>
-  <si>
-    <t>I can track miscellaneous expenses</t>
+    <t>I can make an accurate budget</t>
+  </si>
+  <si>
+    <t>enter monthly recurring payments / subscriptions / expenses</t>
+  </si>
+  <si>
+    <t>I can account for monthly payments / subscriptions / expenses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User </t>
+  </si>
+  <si>
+    <t>have my expenses grouped together as a budget</t>
+  </si>
+  <si>
+    <t>I can create a budget</t>
   </si>
   <si>
     <t>view my monthly budget as a graph</t>
@@ -73,13 +76,10 @@
     <t>I can reuse budgets or edit previous budgets to create a new budget</t>
   </si>
   <si>
-    <t>Owner</t>
-  </si>
-  <si>
-    <t>have an appealing GUI</t>
-  </si>
-  <si>
-    <t>users want to use my software</t>
+    <t>protect my financial data via encryption</t>
+  </si>
+  <si>
+    <t>I can have secured financial data</t>
   </si>
 </sst>
 </file>
@@ -133,16 +133,16 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -386,38 +386,38 @@
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2">
+      <c r="A3" s="4">
         <v>1.0</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2">
+      <c r="A4" s="4">
         <v>1.0</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -426,70 +426,76 @@
         <v>1.0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="B6" s="3" t="s">
+        <v>2.0</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="D6" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="5">
+      <c r="A7" s="2">
         <v>2.0</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="D7" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="5">
+      <c r="A8" s="2">
         <v>2.0</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="D8" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="5">
+      <c r="A9" s="2">
         <v>2.0</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>22</v>
       </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
